--- a/data/trans_orig/P79A2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6427</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2727</v>
+        <v>2275</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10383</v>
+        <v>10348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.491799544995251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2087006347132061</v>
+        <v>0.1740616970345233</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7945647232312515</v>
+        <v>0.7918882406815053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>9992</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6256</v>
+        <v>6162</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12980</v>
+        <v>13525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5230381973986525</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3274924451359847</v>
+        <v>0.3225432569053139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6794965803113856</v>
+        <v>0.7079798172872893</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>16418</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10954</v>
+        <v>11100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21296</v>
+        <v>22207</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5103489289694008</v>
+        <v>0.5103489289694009</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3405080346859978</v>
+        <v>0.3450378819254035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6619915525619325</v>
+        <v>0.6903059473951338</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2685</v>
+        <v>2720</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10341</v>
+        <v>10793</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5082004550047491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2054352767687482</v>
+        <v>0.2081117593184947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7912993652867941</v>
+        <v>0.8259383029654767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>9111</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6123</v>
+        <v>5578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12847</v>
+        <v>12941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4769618026013474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3205034196886144</v>
+        <v>0.2920201827127105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6725075548640149</v>
+        <v>0.6774567430946861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>15752</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10874</v>
+        <v>9963</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21216</v>
+        <v>21070</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4896510710305992</v>
+        <v>0.4896510710305993</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3380084474380675</v>
+        <v>0.3096940526048664</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6594919653140021</v>
+        <v>0.6549621180745964</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>37094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29721</v>
+        <v>29530</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41553</v>
+        <v>42079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8233291078157948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.659669381701884</v>
+        <v>0.6554319840892681</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9222861606172972</v>
+        <v>0.9339704407366435</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -979,19 +979,19 @@
         <v>40812</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29627</v>
+        <v>30730</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48156</v>
+        <v>48401</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.707732214176631</v>
+        <v>0.7077322141766312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5137720270384258</v>
+        <v>0.5329042947695687</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.835087345045495</v>
+        <v>0.8393375726851406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -1000,19 +1000,19 @@
         <v>77906</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64419</v>
+        <v>65958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87298</v>
+        <v>87776</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7584344132766203</v>
+        <v>0.7584344132766201</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6271286209666965</v>
+        <v>0.642114926543508</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8498683486175215</v>
+        <v>0.8545165161192023</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>7960</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3501</v>
+        <v>2975</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15333</v>
+        <v>15524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1766708921842052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07771383938270296</v>
+        <v>0.06602955926335641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3403306182981161</v>
+        <v>0.3445680159107318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1050,19 +1050,19 @@
         <v>16854</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9510</v>
+        <v>9265</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28039</v>
+        <v>26936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2922677858233688</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1649126549545051</v>
+        <v>0.1606624273148594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4862279729615741</v>
+        <v>0.4670957052304317</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1071,19 +1071,19 @@
         <v>24814</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15422</v>
+        <v>14944</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38301</v>
+        <v>36762</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2415655867233798</v>
+        <v>0.2415655867233799</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1501316513824784</v>
+        <v>0.1454834838807973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3728713790333031</v>
+        <v>0.3578850734564917</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>4910</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1402</v>
+        <v>1415</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7276</v>
@@ -1184,7 +1184,7 @@
         <v>0.6748434976689247</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.192728835683619</v>
+        <v>0.1944623442536781</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>6685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4089</v>
+        <v>4143</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>7387</v>
@@ -1205,7 +1205,7 @@
         <v>0.904921532285311</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5535477688325645</v>
+        <v>0.5609171783356741</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1217,19 +1217,19 @@
         <v>11594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7691</v>
+        <v>7050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14119</v>
+        <v>13857</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7907515023491865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5245854529715356</v>
+        <v>0.4808644438787489</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9629786782491797</v>
+        <v>0.9450913572679982</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5874</v>
+        <v>5861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3251565023310751</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.807271164316381</v>
+        <v>0.8055376557463221</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3304</v>
+        <v>3260</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.095078467714689</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4473296547571939</v>
+        <v>0.4413280286793398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>3068</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>543</v>
+        <v>805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6971</v>
+        <v>7612</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2092484976508135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03702132175082026</v>
+        <v>0.0549086427320017</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4754145470284649</v>
+        <v>0.5191355561212511</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>48431</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39295</v>
+        <v>39933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55019</v>
+        <v>55357</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7405637963648647</v>
+        <v>0.7405637963648646</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6008553891463776</v>
+        <v>0.6106134999653916</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.841299306443912</v>
+        <v>0.8464627812411638</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -1413,19 +1413,19 @@
         <v>57488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45593</v>
+        <v>46634</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66349</v>
+        <v>66147</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6831159730803701</v>
+        <v>0.6831159730803698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5417748955117776</v>
+        <v>0.5541382881047628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7884200031595532</v>
+        <v>0.7860167445398134</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>106</v>
@@ -1434,19 +1434,19 @@
         <v>105918</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90778</v>
+        <v>92261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116379</v>
+        <v>117817</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7082372794859382</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6069984283283187</v>
+        <v>0.6169141318415606</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7781867596031098</v>
+        <v>0.7878024720754364</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>16967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10379</v>
+        <v>10041</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26103</v>
+        <v>25465</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2594362036351355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.158700693556088</v>
+        <v>0.1535372187588361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.399144610853623</v>
+        <v>0.3893865000346081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -1484,19 +1484,19 @@
         <v>26667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17806</v>
+        <v>18008</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38562</v>
+        <v>37521</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3168840269196301</v>
+        <v>0.31688402691963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2115799968404467</v>
+        <v>0.2139832554601866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4582251044882228</v>
+        <v>0.4458617118952369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -1505,19 +1505,19 @@
         <v>43634</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33173</v>
+        <v>31735</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>58774</v>
+        <v>57291</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2917627205140618</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2218132403968901</v>
+        <v>0.2121975279245635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.393001571671681</v>
+        <v>0.3830858681584395</v>
       </c>
     </row>
     <row r="15">
